--- a/InventoryWeb/resources/PO_Template.xlsx
+++ b/InventoryWeb/resources/PO_Template.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Ceasefire-001" sheetId="46" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ceasefire-001'!$A$4:$O$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ceasefire-001'!$A$4:$O$35</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -300,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -742,6 +742,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -893,7 +906,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1056,22 +1069,10 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,14 +1099,17 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1218,14 +1222,8 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1256,27 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1347,26 +1324,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="140">
@@ -1530,13 +1510,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>434554</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>44026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>25399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1574,13 +1554,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>93135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1939,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B8:P41"/>
+  <dimension ref="B8:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1986,42 +1966,42 @@
       <c r="O9" s="49"/>
     </row>
     <row r="10" spans="2:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="133" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="135"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
     </row>
     <row r="11" spans="2:15" s="3" customFormat="1" ht="12.75">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="138"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="126"/>
     </row>
     <row r="12" spans="2:15" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B12" s="32"/>
@@ -2040,121 +2020,121 @@
       <c r="O12" s="50"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140" t="s">
+      <c r="C13" s="128"/>
+      <c r="D13" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="141" t="s">
+      <c r="I13" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="144"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="132"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="149" t="s">
+      <c r="I14" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="150"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="126"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="144"/>
     </row>
     <row r="15" spans="2:15" ht="12.95" customHeight="1">
       <c r="B15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="127" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="129"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="147"/>
     </row>
     <row r="16" spans="2:15" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
       <c r="I16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="123" t="s">
+      <c r="J16" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="124"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="142"/>
     </row>
     <row r="17" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="114"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
       <c r="I17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="123">
+      <c r="J17" s="141">
         <v>9766669933</v>
       </c>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="124"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="142"/>
     </row>
     <row r="18" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2168,10 +2148,10 @@
       <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="114"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -2190,27 +2170,27 @@
       <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="117" t="s">
+      <c r="D20" s="113"/>
+      <c r="E20" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="77" t="s">
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="73" t="s">
+      <c r="L20" s="70" t="s">
         <v>42</v>
       </c>
       <c r="M20" s="45" t="s">
@@ -2219,173 +2199,173 @@
       <c r="N20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="75" t="s">
+      <c r="O20" s="72" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="74"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="71"/>
       <c r="M21" s="43">
         <v>0.09</v>
       </c>
       <c r="N21" s="10">
         <v>0.09</v>
       </c>
-      <c r="O21" s="76"/>
+      <c r="O21" s="73"/>
     </row>
     <row r="22" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B22" s="154"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="157"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B23" s="155"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="157"/>
-    </row>
-    <row r="24" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="69"/>
+    </row>
+    <row r="24" spans="2:16" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="103"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="55"/>
-    </row>
-    <row r="25" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="55"/>
-    </row>
-    <row r="26" spans="2:16" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B26" s="35"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="104"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="66"/>
+    </row>
+    <row r="25" spans="2:16" s="16" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B25" s="64"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="2:16" s="16" customFormat="1" ht="12">
+      <c r="B26" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="148"/>
       <c r="F26" s="105"/>
       <c r="G26" s="105"/>
       <c r="H26" s="105"/>
       <c r="I26" s="106"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
+      <c r="J26" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="42"/>
     </row>
-    <row r="27" spans="2:16" s="16" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B27" s="68"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
+    <row r="27" spans="2:16" s="16" customFormat="1" ht="12">
+      <c r="B27" s="65"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="40"/>
       <c r="L27" s="41"/>
       <c r="M27" s="53"/>
       <c r="N27" s="53"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="21"/>
     </row>
     <row r="28" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B28" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="42"/>
+      <c r="B28" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B29" s="69"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="42"/>
-    </row>
-    <row r="30" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B30" s="36" t="s">
-        <v>33</v>
-      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="55"/>
+    </row>
+    <row r="30" spans="2:16" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="37"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -2395,201 +2375,105 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="55"/>
-    </row>
-    <row r="31" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B31" s="37"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="55"/>
-    </row>
-    <row r="32" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B32" s="37"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="55"/>
-    </row>
-    <row r="33" spans="2:15" s="16" customFormat="1" ht="12">
-      <c r="B33" s="37"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="55"/>
-    </row>
-    <row r="34" spans="2:15" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="B34" s="37"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="55"/>
-    </row>
-    <row r="35" spans="2:15" s="16" customFormat="1" ht="12">
-      <c r="B35" s="37"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="57"/>
-    </row>
-    <row r="36" spans="2:15" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B36" s="37"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="59"/>
-    </row>
-    <row r="37" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B37" s="38" t="s">
+      <c r="L30" s="19"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="57"/>
+    </row>
+    <row r="31" spans="2:16" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B31" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="26" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="100" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="101"/>
-    </row>
-    <row r="38" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B38" s="79" t="s">
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="98"/>
+    </row>
+    <row r="32" spans="2:16" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B32" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="103"/>
-    </row>
-    <row r="39" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="103"/>
-    </row>
-    <row r="40" spans="2:15" s="7" customFormat="1" ht="11.25">
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="103"/>
-    </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="85" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="100"/>
+    </row>
+    <row r="33" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="100"/>
+    </row>
+    <row r="34" spans="2:15" s="7" customFormat="1" ht="11.25">
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="100"/>
+    </row>
+    <row r="35" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="88" t="s">
+      <c r="J35" s="83"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="90"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="39">
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="B14:C14"/>
@@ -2597,6 +2481,12 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="J16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:O15"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="B11:O11"/>
@@ -2604,12 +2494,6 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:O15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:D21"/>
@@ -2618,19 +2502,17 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B38:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="I37:K40"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O40"/>
+    <mergeCell ref="B32:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="I31:K34"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O34"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J18" r:id="rId1"/>

--- a/InventoryWeb/resources/PO_Template.xlsx
+++ b/InventoryWeb/resources/PO_Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -36,19 +36,10 @@
     <t>The following number must appear on all invoices, bills of lading and acknowledgements related to this PURCHASE ORDER</t>
   </si>
   <si>
-    <t>VAT TIN No.</t>
-  </si>
-  <si>
-    <t>27440913446-V</t>
-  </si>
-  <si>
     <t>PO No.</t>
   </si>
   <si>
     <t>GST No.</t>
-  </si>
-  <si>
-    <t>27AEBPH1001B1ZM</t>
   </si>
   <si>
     <t>PO DATE</t>
@@ -1111,6 +1102,132 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,12 +1240,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1222,131 +1333,11 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="140">
@@ -1530,7 +1521,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1574,7 +1565,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1921,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B8:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1966,42 +1957,42 @@
       <c r="O9" s="49"/>
     </row>
     <row r="10" spans="2:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="92"/>
     </row>
     <row r="11" spans="2:15" s="3" customFormat="1" ht="12.75">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="126"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
     </row>
     <row r="12" spans="2:15" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B12" s="32"/>
@@ -2020,126 +2011,120 @@
       <c r="O12" s="50"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128" t="s">
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="101"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="129" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="130"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="132"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="137" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="138"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="144"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="83"/>
     </row>
     <row r="15" spans="2:15" ht="12.95" customHeight="1">
       <c r="B15" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="86"/>
+    </row>
+    <row r="16" spans="2:15" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="145" t="s">
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="81"/>
+    </row>
+    <row r="17" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B17" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="147"/>
-    </row>
-    <row r="16" spans="2:15" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="141" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="142"/>
-    </row>
-    <row r="17" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B17" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="109"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="141">
+        <v>12</v>
+      </c>
+      <c r="J17" s="80">
         <v>9766669933</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="142"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="81"/>
     </row>
     <row r="18" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B18" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="134"/>
+      <c r="B18" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -2148,20 +2133,20 @@
       <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B19" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="109"/>
+      <c r="B19" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="71"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -2170,68 +2155,68 @@
       <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="112" t="s">
+      <c r="L20" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="74" t="s">
+      <c r="N20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="74" t="s">
+      <c r="O20" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="72" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="21" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="71"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="113"/>
       <c r="M21" s="43">
         <v>0.09</v>
       </c>
       <c r="N21" s="10">
         <v>0.09</v>
       </c>
-      <c r="O21" s="73"/>
+      <c r="O21" s="115"/>
     </row>
     <row r="22" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
       <c r="J22" s="67"/>
       <c r="K22" s="67"/>
       <c r="L22" s="68"/>
@@ -2243,11 +2228,11 @@
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
       <c r="J23" s="67"/>
       <c r="K23" s="67"/>
       <c r="L23" s="68"/>
@@ -2259,15 +2244,15 @@
       <c r="B24" s="35"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
       <c r="J24" s="11"/>
       <c r="K24" s="12"/>
       <c r="L24" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M24" s="52"/>
       <c r="N24" s="52"/>
@@ -2283,7 +2268,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="60"/>
       <c r="J25" s="39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K25" s="40"/>
       <c r="L25" s="41"/>
@@ -2293,18 +2278,18 @@
       <c r="P25" s="21"/>
     </row>
     <row r="26" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B26" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
+      <c r="B26" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="145"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="146"/>
       <c r="J26" s="39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K26" s="40"/>
       <c r="L26" s="41"/>
@@ -2322,7 +2307,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63"/>
       <c r="J27" s="39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K27" s="40"/>
       <c r="L27" s="41"/>
@@ -2332,7 +2317,7 @@
     </row>
     <row r="28" spans="2:16" s="16" customFormat="1" ht="12">
       <c r="B28" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -2382,123 +2367,98 @@
     </row>
     <row r="31" spans="2:16" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="B31" s="38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="98"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="138"/>
     </row>
     <row r="32" spans="2:16" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B32" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="100"/>
+      <c r="B32" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="140"/>
     </row>
     <row r="33" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="100"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="140"/>
     </row>
     <row r="34" spans="2:15" s="7" customFormat="1" ht="11.25">
-      <c r="B34" s="76"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="100"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="140"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="87"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="123"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:I21"/>
-    <mergeCell ref="J20:J21"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="K20:K21"/>
@@ -2513,6 +2473,31 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:O15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J18" r:id="rId1"/>

--- a/InventoryWeb/resources/PO_Template.xlsx
+++ b/InventoryWeb/resources/PO_Template.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="899"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="899"/>
   </bookViews>
   <sheets>
-    <sheet name="Ceasefire-001" sheetId="46" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="46" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ceasefire-001'!$A$4:$O$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$4:$O$122</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -36,12 +36,21 @@
     <t>The following number must appear on all invoices, bills of lading and acknowledgements related to this PURCHASE ORDER</t>
   </si>
   <si>
+    <t>VAT TIN No.</t>
+  </si>
+  <si>
+    <t>27440913446-V</t>
+  </si>
+  <si>
     <t>PO No.</t>
   </si>
   <si>
     <t>GST No.</t>
   </si>
   <si>
+    <t>27AEBPH1001B1ZM</t>
+  </si>
+  <si>
     <t>PO DATE</t>
   </si>
   <si>
@@ -142,6 +151,21 @@
   </si>
   <si>
     <t>UNIT PRICE Material + Labor</t>
+  </si>
+  <si>
+    <t>Please send two copies of your invoice with enclosed Purchase Order Copy.</t>
+  </si>
+  <si>
+    <t>Enter this order in accordance with the prices, terms, delivery method, and specifications listed above.</t>
+  </si>
+  <si>
+    <t>Material Test Certificate Required along with invoice</t>
+  </si>
+  <si>
+    <t>Taxes as applicable.</t>
+  </si>
+  <si>
+    <t>Warrenty</t>
   </si>
 </sst>
 </file>
@@ -424,17 +448,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -626,17 +639,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -742,10 +744,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -897,7 +929,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -927,21 +959,6 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +995,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,38 +1007,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,34 +1050,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1084,13 +1101,43 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,245 +1146,263 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="140">
@@ -1501,13 +1566,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>434554</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>44026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>25399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1521,7 +1586,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1545,14 +1610,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>93135</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>86785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1565,7 +1630,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1575,8 +1640,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3826933" y="7675035"/>
-          <a:ext cx="996527" cy="626532"/>
+          <a:off x="3363383" y="19581285"/>
+          <a:ext cx="926677" cy="664632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1910,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B8:P35"/>
+  <dimension ref="B8:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118:K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1930,8 +1995,8 @@
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
@@ -1939,63 +2004,63 @@
   <sheetData>
     <row r="8" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:15" ht="9" customHeight="1">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="92"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
     </row>
     <row r="11" spans="2:15" s="3" customFormat="1" ht="12.75">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="2:15" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="32"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2006,478 +2071,1893 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="50"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="98" t="s">
+      <c r="B13" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="101"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="128"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="83"/>
+      <c r="B14" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="156" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="157"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="152"/>
     </row>
     <row r="15" spans="2:15" ht="12.95" customHeight="1">
-      <c r="B15" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="86"/>
+      <c r="B15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="155"/>
     </row>
     <row r="16" spans="2:15" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
       <c r="I16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="81"/>
-    </row>
-    <row r="17" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B17" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="71"/>
+        <v>12</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="150"/>
+    </row>
+    <row r="17" spans="2:15" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B17" s="129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="130"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
       <c r="I17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="80">
+        <v>15</v>
+      </c>
+      <c r="J17" s="149">
         <v>9766669933</v>
       </c>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="81"/>
-    </row>
-    <row r="18" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B18" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
+    </row>
+    <row r="18" spans="2:15" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B18" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="146"/>
       <c r="I18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="51"/>
-    </row>
-    <row r="19" spans="2:16" s="7" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B19" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="45"/>
+    </row>
+    <row r="19" spans="2:15" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B19" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="130"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="51"/>
-    </row>
-    <row r="20" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B20" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="110" t="s">
+      <c r="J19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="110" t="s">
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B20" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="45" t="s">
+      <c r="C20" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="134"/>
+      <c r="E20" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="114" t="s">
+      <c r="K20" s="139" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B21" s="103"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="43">
+      <c r="L20" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="37">
         <v>0.09</v>
       </c>
       <c r="N21" s="10">
         <v>0.09</v>
       </c>
-      <c r="O21" s="115"/>
-    </row>
-    <row r="22" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="10"/>
+      <c r="O21" s="144"/>
+    </row>
+    <row r="22" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B22" s="61"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="69"/>
-    </row>
-    <row r="23" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="10"/>
+      <c r="O22" s="74"/>
+    </row>
+    <row r="23" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B23" s="61"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="69"/>
-    </row>
-    <row r="24" spans="2:16" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="66"/>
-    </row>
-    <row r="25" spans="2:16" s="16" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B25" s="64"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="21"/>
-    </row>
-    <row r="26" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B26" s="144" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="39" t="s">
+      <c r="O23" s="74"/>
+    </row>
+    <row r="24" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B24" s="61"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="74"/>
+    </row>
+    <row r="25" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B25" s="61"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="74"/>
+    </row>
+    <row r="26" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B26" s="61"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="74"/>
+    </row>
+    <row r="27" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B27" s="61"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="74"/>
+    </row>
+    <row r="28" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B28" s="61"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="74"/>
+    </row>
+    <row r="29" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B29" s="61"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="74"/>
+    </row>
+    <row r="30" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B30" s="61"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="74"/>
+    </row>
+    <row r="31" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B31" s="61"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="74"/>
+    </row>
+    <row r="32" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B32" s="61"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="74"/>
+    </row>
+    <row r="33" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B33" s="61"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="74"/>
+    </row>
+    <row r="34" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B34" s="61"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="74"/>
+    </row>
+    <row r="35" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B35" s="61"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="74"/>
+    </row>
+    <row r="36" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B36" s="61"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="74"/>
+    </row>
+    <row r="37" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B37" s="61"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="74"/>
+    </row>
+    <row r="38" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B38" s="61"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="74"/>
+    </row>
+    <row r="39" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B39" s="61"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="74"/>
+    </row>
+    <row r="40" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B40" s="61"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="74"/>
+    </row>
+    <row r="41" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B41" s="61"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="74"/>
+    </row>
+    <row r="42" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B42" s="61"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="74"/>
+    </row>
+    <row r="43" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B43" s="61"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="74"/>
+    </row>
+    <row r="44" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B44" s="61"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="74"/>
+    </row>
+    <row r="45" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B45" s="61"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="74"/>
+    </row>
+    <row r="46" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B46" s="61"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="74"/>
+    </row>
+    <row r="47" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B47" s="61"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="74"/>
+    </row>
+    <row r="48" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B48" s="61"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="74"/>
+    </row>
+    <row r="49" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B49" s="61"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="74"/>
+    </row>
+    <row r="50" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B50" s="61"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="74"/>
+    </row>
+    <row r="51" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B51" s="61"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="74"/>
+    </row>
+    <row r="52" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B52" s="61"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="74"/>
+    </row>
+    <row r="53" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B53" s="61"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="74"/>
+    </row>
+    <row r="54" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B54" s="61"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="74"/>
+    </row>
+    <row r="55" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B55" s="61"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="74"/>
+    </row>
+    <row r="56" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B56" s="61"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="74"/>
+    </row>
+    <row r="57" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B57" s="61"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="74"/>
+    </row>
+    <row r="58" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B58" s="61"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="74"/>
+    </row>
+    <row r="59" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B59" s="61"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="74"/>
+    </row>
+    <row r="60" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B60" s="61"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="74"/>
+    </row>
+    <row r="61" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B61" s="61"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="74"/>
+    </row>
+    <row r="62" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B62" s="61"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="74"/>
+    </row>
+    <row r="63" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B63" s="61"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="74"/>
+    </row>
+    <row r="64" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B64" s="61"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="74"/>
+    </row>
+    <row r="65" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B65" s="61"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="74"/>
+    </row>
+    <row r="66" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B66" s="61"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="74"/>
+    </row>
+    <row r="67" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B67" s="61"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="74"/>
+    </row>
+    <row r="68" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B68" s="61"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="74"/>
+    </row>
+    <row r="69" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B69" s="61"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="74"/>
+    </row>
+    <row r="70" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B70" s="61"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="74"/>
+    </row>
+    <row r="71" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B71" s="61"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="74"/>
+    </row>
+    <row r="72" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B72" s="61"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="74"/>
+    </row>
+    <row r="73" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B73" s="61"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="74"/>
+    </row>
+    <row r="74" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B74" s="61"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="74"/>
+    </row>
+    <row r="75" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B75" s="61"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="74"/>
+    </row>
+    <row r="76" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B76" s="61"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="74"/>
+    </row>
+    <row r="77" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B77" s="61"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="74"/>
+    </row>
+    <row r="78" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B78" s="61"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="74"/>
+    </row>
+    <row r="79" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B79" s="61"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="78"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="74"/>
+    </row>
+    <row r="80" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B80" s="61"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="63"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="74"/>
+    </row>
+    <row r="81" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B81" s="61"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="63"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="74"/>
+    </row>
+    <row r="82" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B82" s="61"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="74"/>
+    </row>
+    <row r="83" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B83" s="61"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="74"/>
+    </row>
+    <row r="84" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B84" s="61"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="74"/>
+    </row>
+    <row r="85" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B85" s="61"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="62"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="74"/>
+    </row>
+    <row r="86" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B86" s="61"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="74"/>
+    </row>
+    <row r="87" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B87" s="61"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="63"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="74"/>
+    </row>
+    <row r="88" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B88" s="61"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="74"/>
+    </row>
+    <row r="89" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B89" s="61"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="74"/>
+    </row>
+    <row r="90" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B90" s="61"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="74"/>
+    </row>
+    <row r="91" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B91" s="61"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="62"/>
+      <c r="K91" s="62"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="74"/>
+    </row>
+    <row r="92" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B92" s="61"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+      <c r="L92" s="63"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="74"/>
+    </row>
+    <row r="93" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B93" s="61"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="63"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="74"/>
+    </row>
+    <row r="94" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B94" s="61"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="62"/>
+      <c r="K94" s="62"/>
+      <c r="L94" s="63"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="74"/>
+    </row>
+    <row r="95" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B95" s="61"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="62"/>
+      <c r="K95" s="62"/>
+      <c r="L95" s="63"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="74"/>
+    </row>
+    <row r="96" spans="2:15" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B96" s="61"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="62"/>
+      <c r="K96" s="62"/>
+      <c r="L96" s="63"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="74"/>
+    </row>
+    <row r="97" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B97" s="61"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="62"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="74"/>
+    </row>
+    <row r="98" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B98" s="61"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="78"/>
+      <c r="J98" s="62"/>
+      <c r="K98" s="62"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="74"/>
+    </row>
+    <row r="99" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B99" s="61"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="78"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="74"/>
+    </row>
+    <row r="100" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B100" s="64"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="80"/>
+      <c r="H100" s="80"/>
+      <c r="I100" s="81"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="72"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="36"/>
+    </row>
+    <row r="101" spans="2:16" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B101" s="64"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="80"/>
+      <c r="H101" s="80"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="73"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="36"/>
+    </row>
+    <row r="102" spans="2:16" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B102" s="64"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="42"/>
-    </row>
-    <row r="27" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B27" s="65"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="39" t="s">
+      <c r="M102" s="70"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="36"/>
+    </row>
+    <row r="103" spans="2:16" s="11" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B103" s="59"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K103" s="34"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="16"/>
+    </row>
+    <row r="104" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B104" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="42"/>
-    </row>
-    <row r="28" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B28" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="55"/>
-    </row>
-    <row r="29" spans="2:16" s="16" customFormat="1" ht="12">
-      <c r="B29" s="37"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="55"/>
-    </row>
-    <row r="30" spans="2:16" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="57"/>
-    </row>
-    <row r="31" spans="2:16" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B31" s="38" t="s">
+      <c r="C104" s="109"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="112"/>
+      <c r="G104" s="112"/>
+      <c r="H104" s="112"/>
+      <c r="I104" s="113"/>
+      <c r="J104" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="26" t="s">
+      <c r="K104" s="34"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="36"/>
+    </row>
+    <row r="105" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B105" s="60"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105" s="34"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="36"/>
+    </row>
+    <row r="106" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B106" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="47"/>
+      <c r="N106" s="47"/>
+      <c r="O106" s="48"/>
+    </row>
+    <row r="107" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B107" s="31">
+        <v>1</v>
+      </c>
+      <c r="C107" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="47"/>
+      <c r="O107" s="48"/>
+    </row>
+    <row r="108" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B108" s="31">
+        <v>2</v>
+      </c>
+      <c r="C108" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="47"/>
+      <c r="N108" s="47"/>
+      <c r="O108" s="48"/>
+    </row>
+    <row r="109" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B109" s="31">
+        <v>3</v>
+      </c>
+      <c r="C109" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="47"/>
+      <c r="N109" s="47"/>
+      <c r="O109" s="48"/>
+    </row>
+    <row r="110" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B110" s="31">
+        <v>4</v>
+      </c>
+      <c r="C110" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
+      <c r="O110" s="48"/>
+    </row>
+    <row r="111" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B111" s="31">
+        <v>5</v>
+      </c>
+      <c r="C111" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="48"/>
+    </row>
+    <row r="112" spans="2:16" s="11" customFormat="1" ht="12">
+      <c r="B112" s="31"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="48"/>
+    </row>
+    <row r="113" spans="2:15" s="11" customFormat="1" ht="12">
+      <c r="B113" s="31"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="47"/>
+      <c r="O113" s="48"/>
+    </row>
+    <row r="114" spans="2:15" s="11" customFormat="1" ht="12">
+      <c r="B114" s="31"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="47"/>
+      <c r="N114" s="47"/>
+      <c r="O114" s="48"/>
+    </row>
+    <row r="115" spans="2:15" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B115" s="31"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="47"/>
+      <c r="O115" s="48"/>
+    </row>
+    <row r="116" spans="2:15" s="11" customFormat="1" ht="12">
+      <c r="B116" s="31"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="50"/>
+    </row>
+    <row r="117" spans="2:15" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="B117" s="31"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="51"/>
+      <c r="N117" s="51"/>
+      <c r="O117" s="52"/>
+    </row>
+    <row r="118" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B118" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="95"/>
+      <c r="J118" s="96"/>
+      <c r="K118" s="97"/>
+      <c r="L118" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="M118" s="104"/>
+      <c r="N118" s="104"/>
+      <c r="O118" s="105"/>
+    </row>
+    <row r="119" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B119" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="85"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="99"/>
+      <c r="K119" s="100"/>
+      <c r="L119" s="106"/>
+      <c r="M119" s="106"/>
+      <c r="N119" s="106"/>
+      <c r="O119" s="107"/>
+    </row>
+    <row r="120" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B120" s="83"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="98"/>
+      <c r="J120" s="99"/>
+      <c r="K120" s="100"/>
+      <c r="L120" s="106"/>
+      <c r="M120" s="106"/>
+      <c r="N120" s="106"/>
+      <c r="O120" s="107"/>
+    </row>
+    <row r="121" spans="2:15" s="7" customFormat="1" ht="11.25">
+      <c r="B121" s="83"/>
+      <c r="C121" s="84"/>
+      <c r="D121" s="84"/>
+      <c r="E121" s="84"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="84"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="102"/>
+      <c r="K121" s="103"/>
+      <c r="L121" s="106"/>
+      <c r="M121" s="106"/>
+      <c r="N121" s="106"/>
+      <c r="O121" s="107"/>
+    </row>
+    <row r="122" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B122" s="86"/>
+      <c r="C122" s="87"/>
+      <c r="D122" s="87"/>
+      <c r="E122" s="87"/>
+      <c r="F122" s="87"/>
+      <c r="G122" s="87"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="138"/>
-    </row>
-    <row r="32" spans="2:16" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B32" s="116" t="s">
+      <c r="J122" s="90"/>
+      <c r="K122" s="91"/>
+      <c r="L122" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="140"/>
-    </row>
-    <row r="33" spans="2:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="140"/>
-    </row>
-    <row r="34" spans="2:15" s="7" customFormat="1" ht="11.25">
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="140"/>
-    </row>
-    <row r="35" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="123"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="127"/>
+      <c r="M122" s="93"/>
+      <c r="N122" s="93"/>
+      <c r="O122" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
+  <mergeCells count="36">
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B32:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="I31:K34"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O34"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:I21"/>
-    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:I104"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="B11:O11"/>
@@ -2485,19 +3965,19 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="B119:H122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="L122:O122"/>
+    <mergeCell ref="I118:K121"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="L119:O121"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J18" r:id="rId1"/>
